--- a/customer_data.xlsx
+++ b/customer_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Akshay\Solar App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akshay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ECA921-E236-4A35-90ED-729FD73331A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB998041-4FEB-42F9-9E18-D7EC79330CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
   <si>
     <t>date</t>
   </si>
@@ -163,16 +163,10 @@
     <t>emp1@example.com</t>
   </si>
   <si>
-    <t>Akshay</t>
-  </si>
-  <si>
-    <t>sdsdsd</t>
-  </si>
-  <si>
-    <t>1 KW</t>
-  </si>
-  <si>
-    <t>9611735681</t>
+    <t>emp2@example.com</t>
+  </si>
+  <si>
+    <t>emp3@example.com</t>
   </si>
 </sst>
 </file>
@@ -180,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +189,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -229,18 +231,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -543,9 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -767,8 +770,8 @@
       <c r="W3" t="s">
         <v>45</v>
       </c>
-      <c r="X3" t="s">
-        <v>46</v>
+      <c r="X3" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
@@ -841,218 +844,24 @@
       <c r="W4" t="s">
         <v>45</v>
       </c>
-      <c r="X4" t="s">
-        <v>46</v>
+      <c r="X4" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>45646</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5">
-        <v>9611735681</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U5" t="s">
-        <v>43</v>
-      </c>
-      <c r="V5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W5" t="s">
-        <v>45</v>
-      </c>
-      <c r="X5" t="s">
-        <v>46</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>45646</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6">
-        <v>9611735681</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" t="s">
-        <v>41</v>
-      </c>
-      <c r="T6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" t="s">
-        <v>43</v>
-      </c>
-      <c r="V6" t="s">
-        <v>44</v>
-      </c>
-      <c r="W6" t="s">
-        <v>45</v>
-      </c>
-      <c r="X6" t="s">
-        <v>46</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>45646</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" t="s">
-        <v>41</v>
-      </c>
-      <c r="T7" t="s">
-        <v>42</v>
-      </c>
-      <c r="U7" t="s">
-        <v>43</v>
-      </c>
-      <c r="V7" t="s">
-        <v>44</v>
-      </c>
-      <c r="W7" t="s">
-        <v>45</v>
-      </c>
-      <c r="X7" t="s">
-        <v>46</v>
-      </c>
+      <c r="A7" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="X3" r:id="rId1" xr:uid="{84B5A24A-9AC3-48C4-9795-4770AAE32C96}"/>
+    <hyperlink ref="X4" r:id="rId2" xr:uid="{9EE7A033-4844-4319-B2B7-D1A6A56F28EC}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/customer_data.xlsx
+++ b/customer_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akshay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB998041-4FEB-42F9-9E18-D7EC79330CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7043E14C-76CB-48E8-9AF9-35070D1B0017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -97,9 +97,6 @@
     <t>2024-12-20</t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
     <t>123 Main St</t>
   </si>
   <si>
@@ -167,16 +164,27 @@
   </si>
   <si>
     <t>emp3@example.com</t>
+  </si>
+  <si>
+    <t>admin@example.com</t>
+  </si>
+  <si>
+    <t>John Doe1</t>
+  </si>
+  <si>
+    <t>John Doe2</t>
+  </si>
+  <si>
+    <t>John Doe3</t>
+  </si>
+  <si>
+    <t>John Doe4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,13 +243,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -546,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,73 +637,73 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2">
         <v>9876543210</v>
       </c>
       <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>37</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>39</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>40</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>41</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>42</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>44</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>45</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
@@ -705,73 +711,73 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3">
         <v>9876543210</v>
       </c>
       <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>34</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>36</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>37</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>39</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>40</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>41</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>42</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>43</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>44</v>
       </c>
-      <c r="W3" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>47</v>
+      <c r="X3" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
@@ -779,88 +785,154 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="D4">
         <v>9876543210</v>
       </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>34</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>35</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>36</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>37</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>39</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>40</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>41</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>42</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>43</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>44</v>
       </c>
-      <c r="W4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>48</v>
+      <c r="X4" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>9876543210</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" t="s">
+        <v>44</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="X3" r:id="rId1" xr:uid="{84B5A24A-9AC3-48C4-9795-4770AAE32C96}"/>
     <hyperlink ref="X4" r:id="rId2" xr:uid="{9EE7A033-4844-4319-B2B7-D1A6A56F28EC}"/>
+    <hyperlink ref="X5" r:id="rId3" xr:uid="{ECF20BF6-86F1-466A-BA85-FBE06E8976F6}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
